--- a/js-xlsx/output.xlsx
+++ b/js-xlsx/output.xlsx
@@ -408,7 +408,7 @@
         <v>0978015876</v>
       </c>
       <c r="C2" t="str">
-        <v>573f4420</v>
+        <v>5990d293</v>
       </c>
     </row>
     <row r="3">
@@ -419,7 +419,7 @@
         <v>0927618248</v>
       </c>
       <c r="C3" t="str">
-        <v>0a1a1c67</v>
+        <v>00df70ab</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         <v>0927618248</v>
       </c>
       <c r="C4" t="str">
-        <v>e0f2778e</v>
+        <v>c963a1a4</v>
       </c>
     </row>
     <row r="5">
@@ -441,7 +441,7 @@
         <v>0913553058</v>
       </c>
       <c r="C5" t="str">
-        <v>5fe7a05e</v>
+        <v>127a5311</v>
       </c>
     </row>
     <row r="6">
@@ -452,7 +452,7 @@
         <v>0916300168</v>
       </c>
       <c r="C6" t="str">
-        <v>dee75bbc</v>
+        <v>af59b378</v>
       </c>
     </row>
     <row r="7">
@@ -463,7 +463,7 @@
         <v>0978531218</v>
       </c>
       <c r="C7" t="str">
-        <v>9693c371</v>
+        <v>88c8ab7d</v>
       </c>
     </row>
     <row r="8">
@@ -474,7 +474,7 @@
         <v>0925133679</v>
       </c>
       <c r="C8" t="str">
-        <v>c311b10a</v>
+        <v>15b86232</v>
       </c>
     </row>
     <row r="9">
@@ -485,7 +485,7 @@
         <v>0925133679</v>
       </c>
       <c r="C9" t="str">
-        <v>75b3474d</v>
+        <v>5e4eecd6</v>
       </c>
     </row>
     <row r="10">
@@ -496,7 +496,7 @@
         <v>0982345444</v>
       </c>
       <c r="C10" t="str">
-        <v>f9f71ce1</v>
+        <v>699130d9</v>
       </c>
     </row>
     <row r="11">
@@ -507,7 +507,7 @@
         <v>0910270440</v>
       </c>
       <c r="C11" t="str">
-        <v>3d8538aa</v>
+        <v>0bece3d3</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>0910270440</v>
       </c>
       <c r="C12" t="str">
-        <v>2893490a</v>
+        <v>4c478fbc</v>
       </c>
     </row>
     <row r="13">
@@ -529,7 +529,7 @@
         <v>0912417905</v>
       </c>
       <c r="C13" t="str">
-        <v>c3fc7522</v>
+        <v>005e6652</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>0975823267</v>
       </c>
       <c r="C14" t="str">
-        <v>eab32b8b</v>
+        <v>d86b1e53</v>
       </c>
     </row>
     <row r="15">
@@ -551,7 +551,7 @@
         <v>0929485034</v>
       </c>
       <c r="C15" t="str">
-        <v>3979e939</v>
+        <v>94330acf</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0929485034</v>
       </c>
       <c r="C16" t="str">
-        <v>9a89e96d</v>
+        <v>0bc87d05</v>
       </c>
     </row>
     <row r="17">
@@ -573,7 +573,7 @@
         <v>0931150709</v>
       </c>
       <c r="C17" t="str">
-        <v>90fe6075</v>
+        <v>3151f529</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>0925133679</v>
       </c>
       <c r="C18" t="str">
-        <v>c2122c0d</v>
+        <v>04629231</v>
       </c>
     </row>
     <row r="19">
@@ -595,7 +595,7 @@
         <v>0928384190</v>
       </c>
       <c r="C19" t="str">
-        <v>0d0c5d6a</v>
+        <v>d10c9c51</v>
       </c>
     </row>
     <row r="20">
@@ -606,7 +606,7 @@
         <v>0928590301</v>
       </c>
       <c r="C20" t="str">
-        <v>87b179ab</v>
+        <v>a2424e40</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>0953719886</v>
       </c>
       <c r="C21" t="str">
-        <v>d9b3fa00</v>
+        <v>7caeff40</v>
       </c>
     </row>
     <row r="22">
@@ -628,7 +628,7 @@
         <v>0922482602</v>
       </c>
       <c r="C22" t="str">
-        <v>a0f444c9</v>
+        <v>1ee06659</v>
       </c>
     </row>
     <row r="23">
@@ -639,7 +639,7 @@
         <v>0922482602</v>
       </c>
       <c r="C23" t="str">
-        <v>d4574119</v>
+        <v>19bd9f4a</v>
       </c>
     </row>
     <row r="24">
@@ -650,7 +650,7 @@
         <v>0922482602</v>
       </c>
       <c r="C24" t="str">
-        <v>4c70d04d</v>
+        <v>0b3956b2</v>
       </c>
     </row>
     <row r="25">
@@ -661,7 +661,7 @@
         <v>0929863950</v>
       </c>
       <c r="C25" t="str">
-        <v>ed58c283</v>
+        <v>7de26c37</v>
       </c>
     </row>
     <row r="26">
@@ -672,7 +672,7 @@
         <v>0917575178</v>
       </c>
       <c r="C26" t="str">
-        <v>38b1cd42</v>
+        <v>04f043e1</v>
       </c>
     </row>
     <row r="27">
@@ -683,7 +683,7 @@
         <v>0917575178</v>
       </c>
       <c r="C27" t="str">
-        <v>8e8c405b</v>
+        <v>f5b519f2</v>
       </c>
     </row>
     <row r="28">
@@ -694,7 +694,7 @@
         <v>0917575178</v>
       </c>
       <c r="C28" t="str">
-        <v>0360e725</v>
+        <v>5c2caa4d</v>
       </c>
     </row>
     <row r="29">
@@ -705,7 +705,7 @@
         <v>0933934627</v>
       </c>
       <c r="C29" t="str">
-        <v>10703257</v>
+        <v>69167be2</v>
       </c>
     </row>
     <row r="30">
@@ -716,7 +716,7 @@
         <v>0932305216</v>
       </c>
       <c r="C30" t="str">
-        <v>c849ab91</v>
+        <v>9e602e42</v>
       </c>
     </row>
     <row r="31">
@@ -727,7 +727,7 @@
         <v>0910252839</v>
       </c>
       <c r="C31" t="str">
-        <v>9eefff84</v>
+        <v>ed7ab2b5</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         <v>0910252839</v>
       </c>
       <c r="C32" t="str">
-        <v>6152ad89</v>
+        <v>ac809273</v>
       </c>
     </row>
     <row r="33">
@@ -749,7 +749,7 @@
         <v>0910252839</v>
       </c>
       <c r="C33" t="str">
-        <v>490470d3</v>
+        <v>0eac429d</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +760,7 @@
         <v>0937871988</v>
       </c>
       <c r="C34" t="str">
-        <v>abf48949</v>
+        <v>8842f147</v>
       </c>
     </row>
     <row r="35">
@@ -771,7 +771,7 @@
         <v>0932090153</v>
       </c>
       <c r="C35" t="str">
-        <v>a84d2af6</v>
+        <v>3da33609</v>
       </c>
     </row>
   </sheetData>
